--- a/Microsoft Excel Tutorial for Beginners - Payroll assignment 3.xlsx
+++ b/Microsoft Excel Tutorial for Beginners - Payroll assignment 3.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ba2c060d63d51d0/freecodecamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F708EEE-093C-4ED5-93E4-CD8C2EB7DCA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D15990D-5A78-4FB8-90A8-2134C6AD56E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{A2473418-E92B-4D5F-9240-9406B4D1C51F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="1" xr2:uid="{A2473418-E92B-4D5F-9240-9406B4D1C51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>Employee Payroll</t>
+  </si>
+  <si>
+    <t>Hours Worked</t>
+  </si>
+  <si>
+    <t>Overtime Hours</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Overtime Bonus</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Jan Pay</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -46,12 +65,6 @@
   </si>
   <si>
     <t>Hourly Wage</t>
-  </si>
-  <si>
-    <t>Hours Worked</t>
-  </si>
-  <si>
-    <t>Pay</t>
   </si>
   <si>
     <t>Kern</t>
@@ -156,37 +169,44 @@
     <t>Genesis</t>
   </si>
   <si>
-    <t>Min</t>
+    <t>Max</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>Min</t>
   </si>
   <si>
     <t>Average</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Over Time Hr's</t>
   </si>
   <si>
-    <t>Overtime Hours</t>
+    <t>pay</t>
   </si>
   <si>
-    <t>Overtime Bonus</t>
+    <t xml:space="preserve">Over time bonus </t>
   </si>
   <si>
-    <t>Jan Pay</t>
+    <t>Total pay</t>
+  </si>
+  <si>
+    <t>jan pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +214,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +259,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,25 +298,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,11 +688,11 @@
   </sheetPr>
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView topLeftCell="P3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -604,40 +713,40 @@
     <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="X2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
       <c r="AD2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
         <v>41640</v>
@@ -735,12 +844,12 @@
         <v>41668</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>15.9</v>
@@ -845,12 +954,12 @@
         <v>3219.75</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -955,12 +1064,12 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>22.1</v>
@@ -1065,12 +1174,12 @@
         <v>3635.4500000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>19.100000000000001</v>
@@ -1175,12 +1284,12 @@
         <v>4125.6000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>6.9</v>
@@ -1285,12 +1394,12 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>14.2</v>
@@ -1395,12 +1504,12 @@
         <v>2918.1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>18</v>
@@ -1505,12 +1614,12 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>17.5</v>
@@ -1615,12 +1724,12 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>14.7</v>
@@ -1725,12 +1834,12 @@
         <v>2822.4</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>13.9</v>
@@ -1835,12 +1944,12 @@
         <v>2821.7</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>11.2</v>
@@ -1945,12 +2054,12 @@
         <v>2262.3999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>10.1</v>
@@ -2055,12 +2164,12 @@
         <v>2065.4499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>9</v>
@@ -2165,12 +2274,12 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>8.44</v>
@@ -2275,12 +2384,12 @@
         <v>1730.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>14.2</v>
@@ -2385,12 +2494,12 @@
         <v>2868.3999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>45</v>
@@ -2495,12 +2604,12 @@
         <v>8662.5</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <v>30</v>
@@ -2605,9 +2714,9 @@
         <v>7170</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <f>MAX(C4:C20)</f>
@@ -2691,9 +2800,9 @@
         <v>8662.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <f>MIN(C4:C20)</f>
@@ -2777,9 +2886,9 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
         <f>AVERAGE(C4:C20)</f>
@@ -2863,9 +2972,9 @@
         <v>3398.8205882352941</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <f>SUM(D4:D20)</f>
@@ -2940,4 +3049,2500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A5F577-F244-489C-A341-81E38C64D7CC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AH27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="16.42578125" customWidth="1"/>
+    <col min="28" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="33"/>
+      <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23">
+        <v>44197</v>
+      </c>
+      <c r="E2" s="23">
+        <f>D2+7</f>
+        <v>44204</v>
+      </c>
+      <c r="F2" s="23">
+        <f t="shared" ref="F2:H2" si="0">E2+7</f>
+        <v>44211</v>
+      </c>
+      <c r="G2" s="23">
+        <f t="shared" si="0"/>
+        <v>44218</v>
+      </c>
+      <c r="H2" s="23">
+        <f t="shared" si="0"/>
+        <v>44225</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23">
+        <v>44197</v>
+      </c>
+      <c r="K2" s="23">
+        <f>J2+7</f>
+        <v>44204</v>
+      </c>
+      <c r="L2" s="23">
+        <f t="shared" ref="L2:N2" si="1">K2+7</f>
+        <v>44211</v>
+      </c>
+      <c r="M2" s="23">
+        <f t="shared" si="1"/>
+        <v>44218</v>
+      </c>
+      <c r="N2" s="23">
+        <f t="shared" si="1"/>
+        <v>44225</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="28">
+        <v>44197</v>
+      </c>
+      <c r="Q2" s="28">
+        <f>P2+7</f>
+        <v>44204</v>
+      </c>
+      <c r="R2" s="28">
+        <f t="shared" ref="R2" si="2">Q2+7</f>
+        <v>44211</v>
+      </c>
+      <c r="S2" s="28">
+        <f>R2+7</f>
+        <v>44218</v>
+      </c>
+      <c r="T2" s="28">
+        <f>S2+7</f>
+        <v>44225</v>
+      </c>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28">
+        <v>44197</v>
+      </c>
+      <c r="W2" s="28">
+        <f>V2+7</f>
+        <v>44204</v>
+      </c>
+      <c r="X2" s="28">
+        <f t="shared" ref="X2:Z2" si="3">W2+7</f>
+        <v>44211</v>
+      </c>
+      <c r="Y2" s="28">
+        <f t="shared" si="3"/>
+        <v>44218</v>
+      </c>
+      <c r="Z2" s="28">
+        <f t="shared" si="3"/>
+        <v>44225</v>
+      </c>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28">
+        <v>44197</v>
+      </c>
+      <c r="AC2" s="28">
+        <f>AB2+7</f>
+        <v>44204</v>
+      </c>
+      <c r="AD2" s="28">
+        <f t="shared" ref="AD2:AE2" si="4">AC2+7</f>
+        <v>44211</v>
+      </c>
+      <c r="AE2" s="28">
+        <f t="shared" si="4"/>
+        <v>44218</v>
+      </c>
+      <c r="AF2" s="28">
+        <f>AE2+7</f>
+        <v>44225</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15">
+        <v>15.9</v>
+      </c>
+      <c r="D3">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5">
+        <v>46</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="27">
+        <f>IF(D3&gt;40,D3-40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="27">
+        <f>IF(E3&gt;40,E3-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="27">
+        <f t="shared" ref="L3:M3" si="5">IF(F3&gt;40,F3-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
+        <f>IF(H3&gt;40,H3-40,0)</f>
+        <v>6</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="29">
+        <f>$C3*D3</f>
+        <v>651.9</v>
+      </c>
+      <c r="Q3" s="29">
+        <f>$C3*E3</f>
+        <v>667.80000000000007</v>
+      </c>
+      <c r="R3" s="29">
+        <f t="shared" ref="Q3:R18" si="6">$C3*F3</f>
+        <v>620.1</v>
+      </c>
+      <c r="S3" s="29">
+        <f>$C3*G3</f>
+        <v>477</v>
+      </c>
+      <c r="T3" s="29">
+        <f>$C3*H3</f>
+        <v>731.4</v>
+      </c>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30">
+        <f>0.5*$C3*J3</f>
+        <v>7.95</v>
+      </c>
+      <c r="W3" s="30">
+        <f t="shared" ref="W3:Y3" si="7">0.5*$C3*K3</f>
+        <v>15.9</v>
+      </c>
+      <c r="X3" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="30">
+        <f>0.5*$C3*N3</f>
+        <v>47.7</v>
+      </c>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="31">
+        <f>P3+V3</f>
+        <v>659.85</v>
+      </c>
+      <c r="AC3" s="31">
+        <f>Q3+W3</f>
+        <v>683.7</v>
+      </c>
+      <c r="AD3" s="31">
+        <f>R3+X3</f>
+        <v>620.1</v>
+      </c>
+      <c r="AE3" s="31">
+        <f>S3+Y3</f>
+        <v>477</v>
+      </c>
+      <c r="AF3" s="31">
+        <f>T3+Z3</f>
+        <v>779.1</v>
+      </c>
+      <c r="AH3" s="16">
+        <f>SUM(AB3:AF3)</f>
+        <v>3219.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5">
+        <v>40</v>
+      </c>
+      <c r="G4" s="5">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="27">
+        <f t="shared" ref="J4:K19" si="8">IF(D4&gt;40,D4-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" ref="L4:N4" si="9">IF(F4&gt;40,F4-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="29">
+        <f t="shared" ref="P4:P19" si="10">$C4*D4</f>
+        <v>420</v>
+      </c>
+      <c r="Q4" s="29">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+      <c r="R4" s="29">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="S4" s="29">
+        <f>$C4*G4</f>
+        <v>380</v>
+      </c>
+      <c r="T4" s="29">
+        <f>$C4*H4</f>
+        <v>440</v>
+      </c>
+      <c r="U4" s="29"/>
+      <c r="V4" s="30">
+        <f>0.5*C4*J4</f>
+        <v>10</v>
+      </c>
+      <c r="W4" s="30">
+        <f>0.5*D4*K4</f>
+        <v>21</v>
+      </c>
+      <c r="X4" s="30">
+        <f>0.5*E4*L4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="30">
+        <f>0.5*F4*M4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="30">
+        <f>0.5*G4*N4</f>
+        <v>76</v>
+      </c>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="31">
+        <f>P4+V4</f>
+        <v>430</v>
+      </c>
+      <c r="AC4" s="31">
+        <f>Q4+W4</f>
+        <v>431</v>
+      </c>
+      <c r="AD4" s="31">
+        <f>R4+X4</f>
+        <v>400</v>
+      </c>
+      <c r="AE4" s="31">
+        <f>S4+Y4</f>
+        <v>380</v>
+      </c>
+      <c r="AF4" s="31">
+        <f t="shared" ref="AF4:AF19" si="11">T4+Z4</f>
+        <v>516</v>
+      </c>
+      <c r="AH4" s="32">
+        <f t="shared" ref="AH4:AH19" si="12">SUM(AB4:AF4)</f>
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>22.1</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="27">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="K5" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" ref="L5:N5" si="13">IF(F5&gt;40,F5-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="29">
+        <f t="shared" si="10"/>
+        <v>1082.9000000000001</v>
+      </c>
+      <c r="Q5" s="29">
+        <f t="shared" si="6"/>
+        <v>884</v>
+      </c>
+      <c r="R5" s="29">
+        <f t="shared" si="6"/>
+        <v>729.30000000000007</v>
+      </c>
+      <c r="S5" s="29">
+        <f>$C5*G5</f>
+        <v>442</v>
+      </c>
+      <c r="T5" s="29">
+        <f>$C5*H5</f>
+        <v>397.8</v>
+      </c>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30">
+        <f>0.5*C5*J5</f>
+        <v>99.45</v>
+      </c>
+      <c r="W5" s="30">
+        <f>0.5*D5*K5</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="30">
+        <f>0.5*E5*L5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="30">
+        <f>0.5*F5*M5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="30">
+        <f>0.5*G5*N5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="31">
+        <f>P5+V5</f>
+        <v>1182.3500000000001</v>
+      </c>
+      <c r="AC5" s="31">
+        <f>Q5+W5</f>
+        <v>884</v>
+      </c>
+      <c r="AD5" s="31">
+        <f>R5+X5</f>
+        <v>729.30000000000007</v>
+      </c>
+      <c r="AE5" s="31">
+        <f>S5+Y5</f>
+        <v>442</v>
+      </c>
+      <c r="AF5" s="31">
+        <f t="shared" si="11"/>
+        <v>397.8</v>
+      </c>
+      <c r="AH5" s="32">
+        <f t="shared" si="12"/>
+        <v>3635.4500000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" ref="L6:N6" si="14">IF(F6&gt;40,F6-40,0)</f>
+        <v>7</v>
+      </c>
+      <c r="M6" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="29">
+        <f t="shared" si="10"/>
+        <v>783.1</v>
+      </c>
+      <c r="Q6" s="29">
+        <f t="shared" si="6"/>
+        <v>955.00000000000011</v>
+      </c>
+      <c r="R6" s="29">
+        <f t="shared" si="6"/>
+        <v>897.7</v>
+      </c>
+      <c r="S6" s="29">
+        <f>$C6*G6</f>
+        <v>573</v>
+      </c>
+      <c r="T6" s="29">
+        <f>$C6*H6</f>
+        <v>744.90000000000009</v>
+      </c>
+      <c r="U6" s="29"/>
+      <c r="V6" s="30">
+        <f>0.5*C6*J6</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="W6" s="30">
+        <f>0.5*D6*K6</f>
+        <v>205</v>
+      </c>
+      <c r="X6" s="30">
+        <f>0.5*E6*L6</f>
+        <v>175</v>
+      </c>
+      <c r="Y6" s="30">
+        <f>0.5*F6*M6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="30">
+        <f>0.5*G6*N6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="31">
+        <f>P6+V6</f>
+        <v>792.65</v>
+      </c>
+      <c r="AC6" s="31">
+        <f>Q6+W6</f>
+        <v>1160</v>
+      </c>
+      <c r="AD6" s="31">
+        <f>R6+X6</f>
+        <v>1072.7</v>
+      </c>
+      <c r="AE6" s="31">
+        <f>S6+Y6</f>
+        <v>573</v>
+      </c>
+      <c r="AF6" s="31">
+        <f t="shared" si="11"/>
+        <v>744.90000000000009</v>
+      </c>
+      <c r="AH6" s="32">
+        <f t="shared" si="12"/>
+        <v>4343.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6.9</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" ref="L7:N7" si="15">IF(F7&gt;40,F7-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="27"/>
+      <c r="P7" s="29">
+        <f t="shared" si="10"/>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="Q7" s="29">
+        <f t="shared" si="6"/>
+        <v>358.8</v>
+      </c>
+      <c r="R7" s="29">
+        <f t="shared" si="6"/>
+        <v>289.8</v>
+      </c>
+      <c r="S7" s="29">
+        <f>$C7*G7</f>
+        <v>276</v>
+      </c>
+      <c r="T7" s="29">
+        <f>$C7*H7</f>
+        <v>276</v>
+      </c>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30">
+        <f>0.5*C7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="30">
+        <f>0.5*D7*K7</f>
+        <v>234</v>
+      </c>
+      <c r="X7" s="30">
+        <f>0.5*E7*L7</f>
+        <v>52</v>
+      </c>
+      <c r="Y7" s="30">
+        <f>0.5*F7*M7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="30">
+        <f>0.5*G7*N7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31">
+        <f>P7+V7</f>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="AC7" s="31">
+        <f>Q7+W7</f>
+        <v>592.79999999999995</v>
+      </c>
+      <c r="AD7" s="31">
+        <f>R7+X7</f>
+        <v>341.8</v>
+      </c>
+      <c r="AE7" s="31">
+        <f>S7+Y7</f>
+        <v>276</v>
+      </c>
+      <c r="AF7" s="31">
+        <f t="shared" si="11"/>
+        <v>276</v>
+      </c>
+      <c r="AH7" s="32">
+        <f t="shared" si="12"/>
+        <v>1755.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15">
+        <v>14.2</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="27">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" ref="L8:N8" si="16">IF(F8&gt;40,F8-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="29">
+        <f t="shared" si="10"/>
+        <v>624.79999999999995</v>
+      </c>
+      <c r="Q8" s="29">
+        <f t="shared" si="6"/>
+        <v>724.19999999999993</v>
+      </c>
+      <c r="R8" s="29">
+        <f t="shared" si="6"/>
+        <v>596.4</v>
+      </c>
+      <c r="S8" s="29">
+        <f>$C8*G8</f>
+        <v>568</v>
+      </c>
+      <c r="T8" s="29">
+        <f>$C8*H8</f>
+        <v>284</v>
+      </c>
+      <c r="U8" s="29"/>
+      <c r="V8" s="30">
+        <f>0.5*C8*J8</f>
+        <v>28.4</v>
+      </c>
+      <c r="W8" s="30">
+        <f>0.5*D8*K8</f>
+        <v>242</v>
+      </c>
+      <c r="X8" s="30">
+        <f>0.5*E8*L8</f>
+        <v>51</v>
+      </c>
+      <c r="Y8" s="30">
+        <f>0.5*F8*M8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="30">
+        <f>0.5*G8*N8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="31">
+        <f>P8+V8</f>
+        <v>653.19999999999993</v>
+      </c>
+      <c r="AC8" s="31">
+        <f>Q8+W8</f>
+        <v>966.19999999999993</v>
+      </c>
+      <c r="AD8" s="31">
+        <f>R8+X8</f>
+        <v>647.4</v>
+      </c>
+      <c r="AE8" s="31">
+        <f>S8+Y8</f>
+        <v>568</v>
+      </c>
+      <c r="AF8" s="31">
+        <f t="shared" si="11"/>
+        <v>284</v>
+      </c>
+      <c r="AH8" s="32">
+        <f t="shared" si="12"/>
+        <v>3118.7999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="15">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5">
+        <v>49</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="27">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" ref="L9:N9" si="17">IF(F9&gt;40,F9-40,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="29">
+        <f t="shared" si="10"/>
+        <v>990</v>
+      </c>
+      <c r="Q9" s="29">
+        <f t="shared" si="6"/>
+        <v>1080</v>
+      </c>
+      <c r="R9" s="29">
+        <f t="shared" si="6"/>
+        <v>810</v>
+      </c>
+      <c r="S9" s="29">
+        <f>$C9*G9</f>
+        <v>720</v>
+      </c>
+      <c r="T9" s="29">
+        <f>$C9*H9</f>
+        <v>882</v>
+      </c>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30">
+        <f>0.5*C9*J9</f>
+        <v>135</v>
+      </c>
+      <c r="W9" s="30">
+        <f>0.5*D9*K9</f>
+        <v>550</v>
+      </c>
+      <c r="X9" s="30">
+        <f>0.5*E9*L9</f>
+        <v>150</v>
+      </c>
+      <c r="Y9" s="30">
+        <f>0.5*F9*M9</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="30">
+        <f>0.5*G9*N9</f>
+        <v>180</v>
+      </c>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31">
+        <f>P9+V9</f>
+        <v>1125</v>
+      </c>
+      <c r="AC9" s="31">
+        <f>Q9+W9</f>
+        <v>1630</v>
+      </c>
+      <c r="AD9" s="31">
+        <f>R9+X9</f>
+        <v>960</v>
+      </c>
+      <c r="AE9" s="31">
+        <f>S9+Y9</f>
+        <v>720</v>
+      </c>
+      <c r="AF9" s="31">
+        <f t="shared" si="11"/>
+        <v>1062</v>
+      </c>
+      <c r="AH9" s="32">
+        <f t="shared" si="12"/>
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5">
+        <v>54</v>
+      </c>
+      <c r="G10" s="5">
+        <v>40</v>
+      </c>
+      <c r="H10" s="5">
+        <v>20</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" ref="L10:N10" si="18">IF(F10&gt;40,F10-40,0)</f>
+        <v>14</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="27"/>
+      <c r="P10" s="29">
+        <f t="shared" si="10"/>
+        <v>577.5</v>
+      </c>
+      <c r="Q10" s="29">
+        <f t="shared" si="6"/>
+        <v>385</v>
+      </c>
+      <c r="R10" s="29">
+        <f t="shared" si="6"/>
+        <v>945</v>
+      </c>
+      <c r="S10" s="29">
+        <f>$C10*G10</f>
+        <v>700</v>
+      </c>
+      <c r="T10" s="29">
+        <f>$C10*H10</f>
+        <v>350</v>
+      </c>
+      <c r="U10" s="29"/>
+      <c r="V10" s="30">
+        <f>0.5*C10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="30">
+        <f>0.5*D10*K10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="30">
+        <f>0.5*E10*L10</f>
+        <v>154</v>
+      </c>
+      <c r="Y10" s="30">
+        <f>0.5*F10*M10</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="30">
+        <f>0.5*G10*N10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31">
+        <f>P10+V10</f>
+        <v>577.5</v>
+      </c>
+      <c r="AC10" s="31">
+        <f>Q10+W10</f>
+        <v>385</v>
+      </c>
+      <c r="AD10" s="31">
+        <f>R10+X10</f>
+        <v>1099</v>
+      </c>
+      <c r="AE10" s="31">
+        <f>S10+Y10</f>
+        <v>700</v>
+      </c>
+      <c r="AF10" s="31">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="AH10" s="32">
+        <f t="shared" si="12"/>
+        <v>3111.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="15">
+        <v>14.7</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5">
+        <v>40</v>
+      </c>
+      <c r="H11" s="5">
+        <v>40</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" ref="L11:N11" si="19">IF(F11&gt;40,F11-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="29">
+        <f t="shared" si="10"/>
+        <v>426.29999999999995</v>
+      </c>
+      <c r="Q11" s="29">
+        <f t="shared" si="6"/>
+        <v>588</v>
+      </c>
+      <c r="R11" s="29">
+        <f t="shared" si="6"/>
+        <v>617.4</v>
+      </c>
+      <c r="S11" s="29">
+        <f>$C11*G11</f>
+        <v>588</v>
+      </c>
+      <c r="T11" s="29">
+        <f>$C11*H11</f>
+        <v>588</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="30">
+        <f>0.5*C11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="30">
+        <f>0.5*D11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="30">
+        <f>0.5*E11*L11</f>
+        <v>40</v>
+      </c>
+      <c r="Y11" s="30">
+        <f>0.5*F11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="30">
+        <f>0.5*G11*N11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31">
+        <f>P11+V11</f>
+        <v>426.29999999999995</v>
+      </c>
+      <c r="AC11" s="31">
+        <f>Q11+W11</f>
+        <v>588</v>
+      </c>
+      <c r="AD11" s="31">
+        <f>R11+X11</f>
+        <v>657.4</v>
+      </c>
+      <c r="AE11" s="31">
+        <f>S11+Y11</f>
+        <v>588</v>
+      </c>
+      <c r="AF11" s="31">
+        <f t="shared" si="11"/>
+        <v>588</v>
+      </c>
+      <c r="AH11" s="32">
+        <f t="shared" si="12"/>
+        <v>2847.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="15">
+        <v>13.9</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5">
+        <v>40</v>
+      </c>
+      <c r="H12" s="5">
+        <v>40</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" ref="L12:N12" si="20">IF(F12&gt;40,F12-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="27"/>
+      <c r="P12" s="29">
+        <f t="shared" si="10"/>
+        <v>556</v>
+      </c>
+      <c r="Q12" s="29">
+        <f t="shared" si="6"/>
+        <v>556</v>
+      </c>
+      <c r="R12" s="29">
+        <f t="shared" si="6"/>
+        <v>583.80000000000007</v>
+      </c>
+      <c r="S12" s="29">
+        <f>$C12*G12</f>
+        <v>556</v>
+      </c>
+      <c r="T12" s="29">
+        <f>$C12*H12</f>
+        <v>556</v>
+      </c>
+      <c r="U12" s="29"/>
+      <c r="V12" s="30">
+        <f>0.5*C12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="30">
+        <f>0.5*D12*K12</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="30">
+        <f>0.5*E12*L12</f>
+        <v>40</v>
+      </c>
+      <c r="Y12" s="30">
+        <f>0.5*F12*M12</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="30">
+        <f>0.5*G12*N12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="31">
+        <f>P12+V12</f>
+        <v>556</v>
+      </c>
+      <c r="AC12" s="31">
+        <f>Q12+W12</f>
+        <v>556</v>
+      </c>
+      <c r="AD12" s="31">
+        <f>R12+X12</f>
+        <v>623.80000000000007</v>
+      </c>
+      <c r="AE12" s="31">
+        <f>S12+Y12</f>
+        <v>556</v>
+      </c>
+      <c r="AF12" s="31">
+        <f t="shared" si="11"/>
+        <v>556</v>
+      </c>
+      <c r="AH12" s="32">
+        <f t="shared" si="12"/>
+        <v>2847.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15">
+        <v>11.2</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5">
+        <v>40</v>
+      </c>
+      <c r="F13" s="5">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5">
+        <v>39</v>
+      </c>
+      <c r="H13" s="5">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" ref="L13:N13" si="21">IF(F13&gt;40,F13-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="27">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="29">
+        <f t="shared" si="10"/>
+        <v>448</v>
+      </c>
+      <c r="Q13" s="29">
+        <f t="shared" si="6"/>
+        <v>448</v>
+      </c>
+      <c r="R13" s="29">
+        <f t="shared" si="6"/>
+        <v>470.4</v>
+      </c>
+      <c r="S13" s="29">
+        <f>$C13*G13</f>
+        <v>436.79999999999995</v>
+      </c>
+      <c r="T13" s="29">
+        <f>$C13*H13</f>
+        <v>448</v>
+      </c>
+      <c r="U13" s="29"/>
+      <c r="V13" s="30">
+        <f>0.5*C13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="30">
+        <f>0.5*D13*K13</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="30">
+        <f>0.5*E13*L13</f>
+        <v>40</v>
+      </c>
+      <c r="Y13" s="30">
+        <f>0.5*F13*M13</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>0.5*G13*N13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="31">
+        <f>P13+V13</f>
+        <v>448</v>
+      </c>
+      <c r="AC13" s="31">
+        <f>Q13+W13</f>
+        <v>448</v>
+      </c>
+      <c r="AD13" s="31">
+        <f>R13+X13</f>
+        <v>510.4</v>
+      </c>
+      <c r="AE13" s="31">
+        <f>S13+Y13</f>
+        <v>436.79999999999995</v>
+      </c>
+      <c r="AF13" s="31">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+      <c r="AH13" s="32">
+        <f t="shared" si="12"/>
+        <v>2291.1999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15">
+        <v>10.1</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42</v>
+      </c>
+      <c r="H14" s="5">
+        <v>40</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" ref="L14:N14" si="22">IF(F14&gt;40,F14-40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="27">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="29">
+        <f t="shared" si="10"/>
+        <v>404</v>
+      </c>
+      <c r="Q14" s="29">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+      <c r="R14" s="29">
+        <f t="shared" si="6"/>
+        <v>414.09999999999997</v>
+      </c>
+      <c r="S14" s="29">
+        <f>$C14*G14</f>
+        <v>424.2</v>
+      </c>
+      <c r="T14" s="29">
+        <f>$C14*H14</f>
+        <v>404</v>
+      </c>
+      <c r="U14" s="29"/>
+      <c r="V14" s="30">
+        <f>0.5*C14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="30">
+        <f>0.5*D14*K14</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="30">
+        <f>0.5*E14*L14</f>
+        <v>20</v>
+      </c>
+      <c r="Y14" s="30">
+        <f>0.5*F14*M14</f>
+        <v>41</v>
+      </c>
+      <c r="Z14" s="30">
+        <f>0.5*G14*N14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="31">
+        <f>P14+V14</f>
+        <v>404</v>
+      </c>
+      <c r="AC14" s="31">
+        <f>Q14+W14</f>
+        <v>404</v>
+      </c>
+      <c r="AD14" s="31">
+        <f>R14+X14</f>
+        <v>434.09999999999997</v>
+      </c>
+      <c r="AE14" s="31">
+        <f>S14+Y14</f>
+        <v>465.2</v>
+      </c>
+      <c r="AF14" s="31">
+        <f t="shared" si="11"/>
+        <v>404</v>
+      </c>
+      <c r="AH14" s="32">
+        <f t="shared" si="12"/>
+        <v>2111.3000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5">
+        <v>39</v>
+      </c>
+      <c r="G15" s="5">
+        <v>42</v>
+      </c>
+      <c r="H15" s="5">
+        <v>40</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" ref="L15:N15" si="23">IF(F15&gt;40,F15-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="27">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="27">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="29">
+        <f t="shared" si="10"/>
+        <v>378</v>
+      </c>
+      <c r="Q15" s="29">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="R15" s="29">
+        <f t="shared" si="6"/>
+        <v>351</v>
+      </c>
+      <c r="S15" s="29">
+        <f>$C15*G15</f>
+        <v>378</v>
+      </c>
+      <c r="T15" s="29">
+        <f>$C15*H15</f>
+        <v>360</v>
+      </c>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30">
+        <f>0.5*C15*J15</f>
+        <v>9</v>
+      </c>
+      <c r="W15" s="30">
+        <f>0.5*D15*K15</f>
+        <v>42</v>
+      </c>
+      <c r="X15" s="30">
+        <f>0.5*E15*L15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="30">
+        <f>0.5*F15*M15</f>
+        <v>39</v>
+      </c>
+      <c r="Z15" s="30">
+        <f>0.5*G15*N15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="31">
+        <f>P15+V15</f>
+        <v>387</v>
+      </c>
+      <c r="AC15" s="31">
+        <f>Q15+W15</f>
+        <v>420</v>
+      </c>
+      <c r="AD15" s="31">
+        <f>R15+X15</f>
+        <v>351</v>
+      </c>
+      <c r="AE15" s="31">
+        <f>S15+Y15</f>
+        <v>417</v>
+      </c>
+      <c r="AF15" s="31">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="AH15" s="32">
+        <f t="shared" si="12"/>
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="15">
+        <v>8.44</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43</v>
+      </c>
+      <c r="F16" s="5">
+        <v>39</v>
+      </c>
+      <c r="G16" s="5">
+        <v>41</v>
+      </c>
+      <c r="H16" s="5">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" ref="L16:N16" si="24">IF(F16&gt;40,F16-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="27">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="27">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="29">
+        <f t="shared" si="10"/>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="Q16" s="29">
+        <f t="shared" si="6"/>
+        <v>362.91999999999996</v>
+      </c>
+      <c r="R16" s="29">
+        <f t="shared" si="6"/>
+        <v>329.15999999999997</v>
+      </c>
+      <c r="S16" s="29">
+        <f>$C16*G16</f>
+        <v>346.03999999999996</v>
+      </c>
+      <c r="T16" s="29">
+        <f>$C16*H16</f>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="U16" s="29"/>
+      <c r="V16" s="30">
+        <f>0.5*C16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="30">
+        <f>0.5*D16*K16</f>
+        <v>60</v>
+      </c>
+      <c r="X16" s="30">
+        <f>0.5*E16*L16</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="30">
+        <f>0.5*F16*M16</f>
+        <v>19.5</v>
+      </c>
+      <c r="Z16" s="30">
+        <f>0.5*G16*N16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="31">
+        <f>P16+V16</f>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="AC16" s="31">
+        <f>Q16+W16</f>
+        <v>422.91999999999996</v>
+      </c>
+      <c r="AD16" s="31">
+        <f>R16+X16</f>
+        <v>329.15999999999997</v>
+      </c>
+      <c r="AE16" s="31">
+        <f>S16+Y16</f>
+        <v>365.53999999999996</v>
+      </c>
+      <c r="AF16" s="31">
+        <f t="shared" si="11"/>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="AH16" s="32">
+        <f t="shared" si="12"/>
+        <v>1792.8199999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="15">
+        <v>14.2</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5">
+        <v>39</v>
+      </c>
+      <c r="G17" s="5">
+        <v>40</v>
+      </c>
+      <c r="H17" s="5">
+        <v>40</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" ref="L17:N17" si="25">IF(F17&gt;40,F17-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="29">
+        <f t="shared" si="10"/>
+        <v>568</v>
+      </c>
+      <c r="Q17" s="29">
+        <f t="shared" si="6"/>
+        <v>596.4</v>
+      </c>
+      <c r="R17" s="29">
+        <f t="shared" si="6"/>
+        <v>553.79999999999995</v>
+      </c>
+      <c r="S17" s="29">
+        <f>$C17*G17</f>
+        <v>568</v>
+      </c>
+      <c r="T17" s="29">
+        <f>$C17*H17</f>
+        <v>568</v>
+      </c>
+      <c r="U17" s="29"/>
+      <c r="V17" s="30">
+        <f>0.5*C17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="30">
+        <f>0.5*D17*K17</f>
+        <v>40</v>
+      </c>
+      <c r="X17" s="30">
+        <f>0.5*E17*L17</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="30">
+        <f>0.5*F17*M17</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="30">
+        <f>0.5*G17*N17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="31">
+        <f>P17+V17</f>
+        <v>568</v>
+      </c>
+      <c r="AC17" s="31">
+        <f>Q17+W17</f>
+        <v>636.4</v>
+      </c>
+      <c r="AD17" s="31">
+        <f>R17+X17</f>
+        <v>553.79999999999995</v>
+      </c>
+      <c r="AE17" s="31">
+        <f>S17+Y17</f>
+        <v>568</v>
+      </c>
+      <c r="AF17" s="31">
+        <f t="shared" si="11"/>
+        <v>568</v>
+      </c>
+      <c r="AH17" s="32">
+        <f t="shared" si="12"/>
+        <v>2894.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" ref="L18:N18" si="26">IF(F18&gt;40,F18-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="27">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="27">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="29">
+        <f t="shared" si="10"/>
+        <v>1845</v>
+      </c>
+      <c r="Q18" s="29">
+        <f t="shared" si="6"/>
+        <v>1890</v>
+      </c>
+      <c r="R18" s="29">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="S18" s="29">
+        <f>$C18*G18</f>
+        <v>1260</v>
+      </c>
+      <c r="T18" s="29">
+        <f>$C18*H18</f>
+        <v>1800</v>
+      </c>
+      <c r="U18" s="29"/>
+      <c r="V18" s="30">
+        <f>0.5*C18*J18</f>
+        <v>22.5</v>
+      </c>
+      <c r="W18" s="30">
+        <f>0.5*D18*K18</f>
+        <v>41</v>
+      </c>
+      <c r="X18" s="30">
+        <f>0.5*E18*L18</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="30">
+        <f>0.5*F18*M18</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="30">
+        <f>0.5*G18*N18</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="31">
+        <f>P18+V18</f>
+        <v>1867.5</v>
+      </c>
+      <c r="AC18" s="31">
+        <f>Q18+W18</f>
+        <v>1931</v>
+      </c>
+      <c r="AD18" s="31">
+        <f>R18+X18</f>
+        <v>1800</v>
+      </c>
+      <c r="AE18" s="31">
+        <f>S18+Y18</f>
+        <v>1260</v>
+      </c>
+      <c r="AF18" s="31">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+      <c r="AH18" s="32">
+        <f t="shared" si="12"/>
+        <v>8658.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="15">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>80</v>
+      </c>
+      <c r="F19" s="5">
+        <v>40</v>
+      </c>
+      <c r="G19" s="5">
+        <v>20</v>
+      </c>
+      <c r="H19" s="5">
+        <v>40</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" ref="L19:N19" si="27">IF(F19&gt;40,F19-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="29">
+        <f t="shared" si="10"/>
+        <v>1170</v>
+      </c>
+      <c r="Q19" s="29">
+        <f t="shared" ref="Q19" si="28">$C19*E19</f>
+        <v>2400</v>
+      </c>
+      <c r="R19" s="29">
+        <f t="shared" ref="R19" si="29">$C19*F19</f>
+        <v>1200</v>
+      </c>
+      <c r="S19" s="29">
+        <f t="shared" ref="S19:T19" si="30">$C19*G19</f>
+        <v>600</v>
+      </c>
+      <c r="T19" s="29">
+        <f t="shared" si="30"/>
+        <v>1200</v>
+      </c>
+      <c r="U19" s="29"/>
+      <c r="V19" s="30">
+        <f>0.5*C19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="30">
+        <f>0.5*D19*K19</f>
+        <v>780</v>
+      </c>
+      <c r="X19" s="30">
+        <f>0.5*E19*L19</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="30">
+        <f>0.5*F19*M19</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="30">
+        <f>0.5*G19*N19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="31">
+        <f>P19+V19</f>
+        <v>1170</v>
+      </c>
+      <c r="AC19" s="31">
+        <f>Q19+W19</f>
+        <v>3180</v>
+      </c>
+      <c r="AD19" s="31">
+        <f>R19+X19</f>
+        <v>1200</v>
+      </c>
+      <c r="AE19" s="31">
+        <f t="shared" ref="AE19" si="31">S19+Y19</f>
+        <v>600</v>
+      </c>
+      <c r="AF19" s="31">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+      <c r="AH19" s="32">
+        <f t="shared" si="12"/>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18">
+        <f>MAX(C3:C19)</f>
+        <v>45</v>
+      </c>
+      <c r="D22" s="19">
+        <f>MAX(D3:D19)</f>
+        <v>55</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="18">
+        <f>MAX(P3:P19)</f>
+        <v>1845</v>
+      </c>
+      <c r="Q22" s="18">
+        <f>MAX(Q3:Q19)</f>
+        <v>2400</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" ref="R22:T22" si="32">MAX(R3:R19)</f>
+        <v>1800</v>
+      </c>
+      <c r="S22" s="18">
+        <f t="shared" si="32"/>
+        <v>1260</v>
+      </c>
+      <c r="T22" s="18">
+        <f t="shared" si="32"/>
+        <v>1800</v>
+      </c>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24">
+        <f t="shared" ref="V22:AF22" si="33">MAX(V3:V19)</f>
+        <v>135</v>
+      </c>
+      <c r="W22" s="24">
+        <f t="shared" si="33"/>
+        <v>780</v>
+      </c>
+      <c r="X22" s="24">
+        <f t="shared" si="33"/>
+        <v>175</v>
+      </c>
+      <c r="Y22" s="24">
+        <f t="shared" si="33"/>
+        <v>41</v>
+      </c>
+      <c r="Z22" s="24">
+        <f t="shared" si="33"/>
+        <v>180</v>
+      </c>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="18">
+        <f t="shared" si="33"/>
+        <v>1867.5</v>
+      </c>
+      <c r="AC22" s="18">
+        <f t="shared" si="33"/>
+        <v>3180</v>
+      </c>
+      <c r="AD22" s="18">
+        <f t="shared" si="33"/>
+        <v>1800</v>
+      </c>
+      <c r="AE22" s="18">
+        <f t="shared" si="33"/>
+        <v>1260</v>
+      </c>
+      <c r="AF22" s="18">
+        <f t="shared" si="33"/>
+        <v>1800</v>
+      </c>
+      <c r="AH22" s="18">
+        <f t="shared" ref="AH22" si="34">MAX(AH3:AH19)</f>
+        <v>8658.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
+        <f>MIN(C3:C19)</f>
+        <v>6.9</v>
+      </c>
+      <c r="D23" s="19">
+        <f>MIN(D3:D19)</f>
+        <v>29</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="18">
+        <f>MIN(P3:P19)</f>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" ref="Q23:T23" si="35">MIN(Q3:Q19)</f>
+        <v>358.8</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" si="35"/>
+        <v>289.8</v>
+      </c>
+      <c r="S23" s="18">
+        <f t="shared" si="35"/>
+        <v>276</v>
+      </c>
+      <c r="T23" s="18">
+        <f t="shared" si="35"/>
+        <v>276</v>
+      </c>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24">
+        <f t="shared" ref="V23:AF23" si="36">MIN(V3:V19)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="18">
+        <f t="shared" si="36"/>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="AC23" s="18">
+        <f t="shared" si="36"/>
+        <v>385</v>
+      </c>
+      <c r="AD23" s="18">
+        <f t="shared" si="36"/>
+        <v>329.15999999999997</v>
+      </c>
+      <c r="AE23" s="18">
+        <f t="shared" si="36"/>
+        <v>276</v>
+      </c>
+      <c r="AF23" s="18">
+        <f t="shared" si="36"/>
+        <v>276</v>
+      </c>
+      <c r="AH23" s="18">
+        <f t="shared" ref="AH23" si="37">MIN(AH3:AH19)</f>
+        <v>1755.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
+        <f>AVERAGE(C3:C19)</f>
+        <v>16.484705882352941</v>
+      </c>
+      <c r="D24" s="19">
+        <f>AVERAGE(D3:D19)</f>
+        <v>40.882352941176471</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="18">
+        <f>AVERAGE(P3:P19)</f>
+        <v>678.36470588235295</v>
+      </c>
+      <c r="Q24" s="18">
+        <f t="shared" ref="Q24:T24" si="38">AVERAGE(Q3:Q19)</f>
+        <v>769.88941176470587</v>
+      </c>
+      <c r="R24" s="18">
+        <f t="shared" si="38"/>
+        <v>682.82117647058828</v>
+      </c>
+      <c r="S24" s="18">
+        <f t="shared" si="38"/>
+        <v>546.64941176470597</v>
+      </c>
+      <c r="T24" s="18">
+        <f t="shared" si="38"/>
+        <v>609.86470588235295</v>
+      </c>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24">
+        <f t="shared" ref="V24:AF24" si="39">AVERAGE(V3:V19)</f>
+        <v>18.932352941176472</v>
+      </c>
+      <c r="W24" s="24">
+        <f t="shared" si="39"/>
+        <v>131.2294117647059</v>
+      </c>
+      <c r="X24" s="24">
+        <f t="shared" si="39"/>
+        <v>42.470588235294116</v>
+      </c>
+      <c r="Y24" s="24">
+        <f t="shared" si="39"/>
+        <v>5.8529411764705879</v>
+      </c>
+      <c r="Z24" s="24">
+        <f t="shared" si="39"/>
+        <v>17.86470588235294</v>
+      </c>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="18">
+        <f t="shared" si="39"/>
+        <v>697.29705882352937</v>
+      </c>
+      <c r="AC24" s="18">
+        <f t="shared" si="39"/>
+        <v>901.11882352941177</v>
+      </c>
+      <c r="AD24" s="18">
+        <f t="shared" si="39"/>
+        <v>725.29176470588231</v>
+      </c>
+      <c r="AE24" s="18">
+        <f t="shared" si="39"/>
+        <v>552.50235294117647</v>
+      </c>
+      <c r="AF24" s="18">
+        <f t="shared" si="39"/>
+        <v>627.72941176470601</v>
+      </c>
+      <c r="AH24" s="18">
+        <f t="shared" ref="AH24" si="40">AVERAGE(AH3:AH19)</f>
+        <v>3503.9394117647062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <f>SUM(C3:C19)</f>
+        <v>280.24</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" ref="D25" si="41">SUM(D3:D19)</f>
+        <v>695</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="20">
+        <f>SUM(P3:P19)</f>
+        <v>11532.2</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" ref="Q25:T25" si="42">SUM(Q3:Q19)</f>
+        <v>13088.119999999999</v>
+      </c>
+      <c r="R25" s="20">
+        <f t="shared" si="42"/>
+        <v>11607.960000000001</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="42"/>
+        <v>9293.0400000000009</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="42"/>
+        <v>10367.700000000001</v>
+      </c>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25">
+        <f t="shared" ref="V25:AF25" si="43">SUM(V3:V19)</f>
+        <v>321.85000000000002</v>
+      </c>
+      <c r="W25" s="25">
+        <f t="shared" si="43"/>
+        <v>2230.9</v>
+      </c>
+      <c r="X25" s="25">
+        <f t="shared" si="43"/>
+        <v>722</v>
+      </c>
+      <c r="Y25" s="25">
+        <f t="shared" si="43"/>
+        <v>99.5</v>
+      </c>
+      <c r="Z25" s="25">
+        <f t="shared" si="43"/>
+        <v>303.7</v>
+      </c>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="20">
+        <f t="shared" si="43"/>
+        <v>11854.05</v>
+      </c>
+      <c r="AC25" s="20">
+        <f t="shared" si="43"/>
+        <v>15319.02</v>
+      </c>
+      <c r="AD25" s="20">
+        <f t="shared" si="43"/>
+        <v>12329.96</v>
+      </c>
+      <c r="AE25" s="20">
+        <f t="shared" si="43"/>
+        <v>9392.5400000000009</v>
+      </c>
+      <c r="AF25" s="20">
+        <f t="shared" si="43"/>
+        <v>10671.400000000001</v>
+      </c>
+      <c r="AH25" s="20">
+        <f t="shared" ref="AH25" si="44">SUM(AH3:AH19)</f>
+        <v>59566.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
 </file>